--- a/Hopfield/Zeszyt1.xlsx
+++ b/Hopfield/Zeszyt1.xlsx
@@ -829,13 +829,8 @@
             </a:r>
             <a:r>
               <a:rPr lang="pl-PL" baseline="0"/>
-              <a:t> skutecznosc algorytmy wzgledem kwadratu</a:t>
+              <a:t> skutecznosc algorytmy wzgledem †</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:rich>
@@ -3438,7 +3433,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
